--- a/data_exploration/tag_stats/tag_stats_fusional.xlsx
+++ b/data_exploration/tag_stats/tag_stats_fusional.xlsx
@@ -122,7 +122,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -194,6 +194,264 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_bulgarian.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_english.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_russian.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_slovak.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_croatian.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_fusional.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,7 +1591,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1345,7 +1603,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1383,7 +1641,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1395,7 +1653,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1407,7 +1665,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1433,7 +1691,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1445,7 +1703,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1483,7 +1741,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1495,7 +1753,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1507,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1527,6 +1785,7 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2578,6 +2837,7 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3629,6 +3889,7 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4680,6 +4941,7 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5731,6 +5993,7 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6468,7 +6731,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -6477,7 +6740,7 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -6486,7 +6749,7 @@
         <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -6506,7 +6769,7 @@
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -6515,7 +6778,7 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -6524,7 +6787,7 @@
         <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -6541,5 +6804,6 @@
     <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>